--- a/Automate Excel Report/barchart.xlsx
+++ b/Automate Excel Report/barchart.xlsx
@@ -138,7 +138,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
+  <style val="5"/>
   <chart>
     <title>
       <tx>
@@ -343,9 +343,9 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>1</col>
+      <col>8</col>
       <colOff>0</colOff>
-      <row>11</row>
+      <row>4</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
